--- a/apps/tool/doc/holiday.xlsx
+++ b/apps/tool/doc/holiday.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28520" windowHeight="14800"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2020" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -93,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -116,28 +116,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,21 +136,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -181,9 +144,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,12 +161,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -214,15 +192,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,29 +253,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,19 +273,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,145 +429,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,15 +458,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,6 +485,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -511,35 +517,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,151 +540,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/apps/tool/doc/holiday.xlsx
+++ b/apps/tool/doc/holiday.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28520" windowHeight="14800"/>
+    <workbookView windowWidth="28520" windowHeight="14900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
+    <sheet name="2021" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>元旦节</t>
   </si>
@@ -86,6 +87,36 @@
   </si>
   <si>
     <t>8天</t>
+  </si>
+  <si>
+    <t>01月01日~01月03日</t>
+  </si>
+  <si>
+    <t>02月11日~02月17日</t>
+  </si>
+  <si>
+    <t>2月7日（周日）、2月20日（周六）</t>
+  </si>
+  <si>
+    <t>7天</t>
+  </si>
+  <si>
+    <t>04月03日~04月05日</t>
+  </si>
+  <si>
+    <t>05月01日~05月03日</t>
+  </si>
+  <si>
+    <t>06月12日~06月14日</t>
+  </si>
+  <si>
+    <t>09月21日~09月21日</t>
+  </si>
+  <si>
+    <t>10月01日~10月07日</t>
+  </si>
+  <si>
+    <t>09月26日（周日）、10月09日（周六）</t>
   </si>
 </sst>
 </file>
@@ -93,10 +124,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -108,14 +139,121 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,47 +267,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,22 +276,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,59 +284,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,43 +304,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,133 +448,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +495,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -481,21 +532,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,10 +553,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -541,168 +575,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,8 +1069,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1151,4 +1182,125 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="7.57142857142857" customWidth="1"/>
+    <col min="2" max="2" width="20.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="38.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="5.57142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/apps/tool/doc/holiday.xlsx
+++ b/apps/tool/doc/holiday.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>元旦节</t>
   </si>
@@ -104,13 +104,16 @@
     <t>04月03日~04月05日</t>
   </si>
   <si>
-    <t>05月01日~05月03日</t>
+    <t>4月25日（周日）、5月8日（周六）</t>
   </si>
   <si>
     <t>06月12日~06月14日</t>
   </si>
   <si>
-    <t>09月21日~09月21日</t>
+    <t>09月19日~09月21日</t>
+  </si>
+  <si>
+    <t>9月18日（周六）</t>
   </si>
   <si>
     <t>10月01日~10月07日</t>
@@ -125,9 +128,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -146,9 +149,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,21 +185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -181,9 +192,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,9 +216,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,24 +247,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,21 +264,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -269,21 +287,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,25 +301,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,157 +397,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,26 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -532,6 +515,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,184 +575,165 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1190,7 +1193,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1248,13 +1251,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1279,10 +1282,10 @@
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1290,10 +1293,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>27</v>

--- a/apps/tool/doc/holiday.xlsx
+++ b/apps/tool/doc/holiday.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28520" windowHeight="14900" activeTab="1"/>
+    <workbookView windowHeight="15460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>02月11日~02月17日</t>
   </si>
   <si>
-    <t>2月7日（周日）、2月20日（周六）</t>
+    <t>02月07日（周日）、02月20日（周六）</t>
   </si>
   <si>
     <t>7天</t>
@@ -104,7 +104,7 @@
     <t>04月03日~04月05日</t>
   </si>
   <si>
-    <t>4月25日（周日）、5月8日（周六）</t>
+    <t>04月25日（周日）、05月08日（周六）</t>
   </si>
   <si>
     <t>06月12日~06月14日</t>
@@ -113,7 +113,7 @@
     <t>09月19日~09月21日</t>
   </si>
   <si>
-    <t>9月18日（周六）</t>
+    <t>09月18日（周六）</t>
   </si>
   <si>
     <t>10月01日~10月07日</t>
@@ -127,10 +127,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -149,13 +149,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -164,9 +157,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,6 +171,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -185,6 +185,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -192,17 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,17 +239,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,54 +277,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,19 +301,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,13 +439,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,145 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,17 +504,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,16 +538,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,156 +578,162 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D7"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="6" outlineLevelCol="3"/>
